--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -578,16 +578,19 @@
     <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1 || evento.separazione.tipoProvvedimentoSeparazione,=,3</t>
+  </si>
+  <si>
+    <t>Accordo Separazione / Divorzio</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
   </si>
   <si>
     <t>Conferma Accordo Separazione</t>
   </si>
   <si>
     <t>evento.separazione.confermaAccordoSeparazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -679,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5650,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>51</v>
@@ -5659,7 +5662,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217">
@@ -5673,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>53</v>
@@ -5682,7 +5685,7 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218">
@@ -5696,7 +5699,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>55</v>
@@ -5705,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219">
@@ -5719,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>57</v>
@@ -5728,7 +5731,7 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220">
@@ -5742,7 +5745,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>59</v>
@@ -5751,7 +5754,7 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221">
@@ -5765,7 +5768,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>61</v>
@@ -5774,7 +5777,7 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222">
@@ -5788,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>19</v>
@@ -5797,7 +5800,7 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223">
@@ -5811,7 +5814,7 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>64</v>
@@ -5820,7 +5823,7 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224">
@@ -5831,10 +5834,10 @@
         <v>65</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>22</v>
@@ -5843,7 +5846,7 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225">
@@ -5857,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>67</v>
@@ -5866,7 +5869,7 @@
         <v>14</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226">
@@ -5880,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>69</v>
@@ -5889,7 +5892,7 @@
         <v>14</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227">
@@ -5903,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>71</v>
@@ -5912,7 +5915,7 @@
         <v>14</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228">
@@ -5926,7 +5929,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>73</v>
@@ -5935,121 +5938,420 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
+      <c r="E246" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>20</v>
       </c>
     </row>
